--- a/Src/Litium.Accelerator.Mvc/App_Files/Dealers.xlsx
+++ b/Src/Litium.Accelerator.Mvc/App_Files/Dealers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bbtoolsab-my.sharepoint.com/personal/micaela_adahl_luna_se/Documents/Admin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E230FB3-C3C3-4487-B356-CD0F8BA457AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB618039-1378-42EA-8E61-85AC1EC87E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05C910C4-467D-4B54-B03F-9BBD63D4ACDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05C910C4-467D-4B54-B03F-9BBD63D4ACDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1198">
   <si>
     <t>TOOLS SVERIGE AB ÖRNSKÖLDSVIK</t>
   </si>
@@ -3627,6 +3627,9 @@
   </si>
   <si>
     <t>nej</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
 </sst>
 </file>
@@ -4067,25 +4070,25 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L149" sqref="L149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>740</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>182</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>182</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>182</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>182</v>
       </c>
@@ -4235,7 +4238,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>182</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>182</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>182</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>182</v>
       </c>
@@ -4351,7 +4354,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>182</v>
       </c>
@@ -4409,7 +4412,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>182</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>182</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>182</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>182</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>182</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>182</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>182</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>182</v>
       </c>
@@ -4641,7 +4644,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>182</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>182</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>182</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>182</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>182</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>183</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>183</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>183</v>
       </c>
@@ -4873,7 +4876,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>183</v>
       </c>
@@ -4902,7 +4905,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>183</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>183</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>183</v>
       </c>
@@ -4989,7 +4992,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>183</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>183</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>183</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>183</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>183</v>
       </c>
@@ -5134,7 +5137,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>183</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>183</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>183</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>183</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>183</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>183</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>183</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>183</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>183</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>183</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>183</v>
       </c>
@@ -5482,7 +5485,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>183</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>183</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>183</v>
       </c>
@@ -5569,7 +5572,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>183</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>183</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>183</v>
       </c>
@@ -5656,7 +5659,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>183</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>183</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>183</v>
       </c>
@@ -5743,7 +5746,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>183</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>183</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>183</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>183</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>183</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>183</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>183</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>183</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>183</v>
       </c>
@@ -6004,7 +6007,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>183</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>183</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>183</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>183</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>183</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>183</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>183</v>
       </c>
@@ -6207,7 +6210,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>183</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>183</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>183</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>184</v>
       </c>
@@ -6323,7 +6326,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>184</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>184</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>184</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>184</v>
       </c>
@@ -6438,8 +6441,11 @@
       <c r="J81" s="4" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L81" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>184</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>184</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>184</v>
       </c>
@@ -6529,7 +6535,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>184</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>184</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>184</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>184</v>
       </c>
@@ -6645,7 +6651,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>184</v>
       </c>
@@ -6674,7 +6680,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>184</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>184</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>184</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>184</v>
       </c>
@@ -6790,7 +6796,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>184</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>184</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>184</v>
       </c>
@@ -6877,7 +6883,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>184</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>184</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>184</v>
       </c>
@@ -6964,7 +6970,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>184</v>
       </c>
@@ -6993,7 +6999,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>184</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>184</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>184</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>184</v>
       </c>
@@ -7109,7 +7115,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>184</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>184</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>184</v>
       </c>
@@ -7196,7 +7202,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>184</v>
       </c>
@@ -7225,7 +7231,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>184</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>184</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>184</v>
       </c>
@@ -7312,7 +7318,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>184</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>184</v>
       </c>
@@ -7373,7 +7379,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>184</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>184</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>184</v>
       </c>
@@ -7459,7 +7465,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>184</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>184</v>
       </c>
@@ -7518,7 +7524,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>184</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>184</v>
       </c>
@@ -7576,7 +7582,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>184</v>
       </c>
@@ -7605,7 +7611,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>184</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>184</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>185</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>185</v>
       </c>
@@ -7721,7 +7727,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>185</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>185</v>
       </c>
@@ -7779,7 +7785,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>185</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>185</v>
       </c>
@@ -7837,7 +7843,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>185</v>
       </c>
@@ -7866,7 +7872,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>185</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>186</v>
       </c>
@@ -7924,7 +7930,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>186</v>
       </c>
@@ -7953,7 +7959,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>186</v>
       </c>
@@ -7982,7 +7988,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>186</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>186</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>186</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>186</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>186</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>186</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>186</v>
       </c>
@@ -8214,7 +8220,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>186</v>
       </c>
@@ -8243,7 +8249,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>186</v>
       </c>
@@ -8272,7 +8278,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>186</v>
       </c>
@@ -8301,7 +8307,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>186</v>
       </c>
@@ -8330,7 +8336,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>186</v>
       </c>
@@ -8359,7 +8365,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>187</v>
       </c>
@@ -8388,7 +8394,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>187</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>187</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>187</v>
       </c>
@@ -8476,7 +8482,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>187</v>
       </c>
@@ -8506,7 +8512,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>187</v>
       </c>
@@ -8536,7 +8542,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>188</v>
       </c>
@@ -8565,7 +8571,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>188</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>188</v>
       </c>
@@ -8623,7 +8629,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>188</v>
       </c>
@@ -8652,7 +8658,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>188</v>
       </c>
@@ -8681,7 +8687,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>188</v>
       </c>
@@ -8710,7 +8716,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>188</v>
       </c>
@@ -8739,7 +8745,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>188</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>188</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>188</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>188</v>
       </c>
@@ -8855,7 +8861,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>188</v>
       </c>
@@ -8884,7 +8890,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>188</v>
       </c>
@@ -8913,7 +8919,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>188</v>
       </c>
@@ -8942,7 +8948,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>188</v>
       </c>
@@ -8971,7 +8977,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>188</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>188</v>
       </c>
@@ -9029,7 +9035,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>188</v>
       </c>
@@ -9058,7 +9064,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>188</v>
       </c>
@@ -9087,7 +9093,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>188</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>188</v>
       </c>
@@ -9145,7 +9151,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>188</v>
       </c>
@@ -9174,7 +9180,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>188</v>
       </c>
@@ -9203,7 +9209,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>188</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>188</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>188</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>188</v>
       </c>
@@ -9319,7 +9325,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>188</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>188</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>188</v>
       </c>
@@ -9406,7 +9412,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>188</v>
       </c>
@@ -9435,7 +9441,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>188</v>
       </c>
@@ -9464,7 +9470,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>188</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>188</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>188</v>
       </c>
@@ -9551,7 +9557,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>188</v>
       </c>
@@ -9580,7 +9586,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>188</v>
       </c>
@@ -9609,7 +9615,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>188</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>188</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>188</v>
       </c>
@@ -9696,7 +9702,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>188</v>
       </c>
@@ -9725,7 +9731,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>188</v>
       </c>
@@ -9754,7 +9760,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>188</v>
       </c>
@@ -9783,7 +9789,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>188</v>
       </c>
@@ -9812,7 +9818,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>188</v>
       </c>
@@ -9841,7 +9847,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>188</v>
       </c>
@@ -9870,7 +9876,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>188</v>
       </c>
@@ -9899,7 +9905,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>189</v>
       </c>
@@ -9928,7 +9934,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>189</v>
       </c>
@@ -9957,7 +9963,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>189</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>189</v>
       </c>
@@ -10015,7 +10021,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>189</v>
       </c>
@@ -10044,7 +10050,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>189</v>
       </c>
@@ -10073,7 +10079,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>189</v>
       </c>
@@ -10102,7 +10108,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>189</v>
       </c>
@@ -10131,7 +10137,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>189</v>
       </c>
@@ -10160,7 +10166,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>189</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>189</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>189</v>
       </c>
@@ -10247,7 +10253,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>189</v>
       </c>
@@ -10276,7 +10282,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>189</v>
       </c>
@@ -10305,7 +10311,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>189</v>
       </c>
@@ -10334,7 +10340,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>189</v>
       </c>
@@ -10363,7 +10369,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>189</v>
       </c>
@@ -10392,7 +10398,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>189</v>
       </c>
@@ -10421,7 +10427,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>189</v>
       </c>
@@ -10450,7 +10456,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>189</v>
       </c>
@@ -10479,7 +10485,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>189</v>
       </c>
@@ -10508,7 +10514,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>189</v>
       </c>
@@ -10537,7 +10543,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>189</v>
       </c>
@@ -10566,7 +10572,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>189</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>189</v>
       </c>
@@ -10624,7 +10630,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>189</v>
       </c>
@@ -10653,7 +10659,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>189</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>189</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>189</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>189</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>190</v>
       </c>
@@ -10798,7 +10804,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>190</v>
       </c>
@@ -10827,7 +10833,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>190</v>
       </c>
@@ -10856,7 +10862,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>190</v>
       </c>
@@ -10885,7 +10891,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>190</v>
       </c>
@@ -10914,7 +10920,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>190</v>
       </c>
@@ -10943,7 +10949,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>190</v>
       </c>
@@ -10972,7 +10978,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>190</v>
       </c>
@@ -11001,7 +11007,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>190</v>
       </c>
@@ -11030,7 +11036,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>241</v>
       </c>
@@ -11059,7 +11065,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>241</v>
       </c>
@@ -11088,7 +11094,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>241</v>
       </c>
@@ -11117,7 +11123,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>241</v>
       </c>
@@ -11146,7 +11152,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
